--- a/config_debug/common_lottery_server.xlsx
+++ b/config_debug/common_lottery_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_811\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="283">
   <si>
     <t>id|</t>
   </si>
@@ -1522,6 +1522,22 @@
     <t>summer_gift_day</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>积分抽大奖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_any</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_blessing_shiwu_email</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_blessing_shiwu_email</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2039,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2817,8 +2833,44 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="b">
+        <v>1</v>
+      </c>
       <c r="C19" s="15" t="s">
         <v>278</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1597102200</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1597679999</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1597679999</v>
+      </c>
+      <c r="H19" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10">
+        <v>18</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>16</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2830,10 +2882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD85"/>
+  <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20528,6 +20580,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>18</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E86" s="2">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20540,7 +20606,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20628,10 +20694,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20998,6 +21064,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21009,7 +21086,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21396,13 +21473,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q143"/>
+  <dimension ref="A1:Q153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D74" sqref="D74:D83"/>
+      <selection pane="bottomRight" activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25903,7 +25980,7 @@
         <v>1</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="I140" s="21" t="s">
         <v>133</v>
@@ -25990,12 +26067,272 @@
         <v>1</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="I143" s="21" t="s">
         <v>133</v>
       </c>
       <c r="K143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="16">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2">
+        <v>16</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1</v>
+      </c>
+      <c r="D144" s="2">
+        <v>2</v>
+      </c>
+      <c r="F144" s="2">
+        <v>157</v>
+      </c>
+      <c r="G144" s="2">
+        <v>7</v>
+      </c>
+      <c r="I144" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="16">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2">
+        <v>16</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2</v>
+      </c>
+      <c r="D145" s="2">
+        <v>10</v>
+      </c>
+      <c r="F145" s="2">
+        <v>158</v>
+      </c>
+      <c r="G145" s="2">
+        <v>6</v>
+      </c>
+      <c r="I145" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="16">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2">
+        <v>16</v>
+      </c>
+      <c r="C146" s="2">
+        <v>3</v>
+      </c>
+      <c r="D146" s="2">
+        <v>20</v>
+      </c>
+      <c r="F146" s="2">
+        <v>159</v>
+      </c>
+      <c r="G146" s="2">
+        <v>5</v>
+      </c>
+      <c r="I146" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" s="16">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2">
+        <v>16</v>
+      </c>
+      <c r="C147" s="2">
+        <v>4</v>
+      </c>
+      <c r="D147" s="2">
+        <v>50</v>
+      </c>
+      <c r="F147" s="2">
+        <v>160</v>
+      </c>
+      <c r="G147" s="2">
+        <v>5</v>
+      </c>
+      <c r="I147" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="16">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2">
+        <v>16</v>
+      </c>
+      <c r="C148" s="2">
+        <v>5</v>
+      </c>
+      <c r="D148" s="2">
+        <v>100</v>
+      </c>
+      <c r="F148" s="2">
+        <v>161</v>
+      </c>
+      <c r="G148" s="2">
+        <v>1</v>
+      </c>
+      <c r="I148" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" s="16">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2">
+        <v>16</v>
+      </c>
+      <c r="C149" s="2">
+        <v>6</v>
+      </c>
+      <c r="D149" s="2">
+        <v>200</v>
+      </c>
+      <c r="F149" s="2">
+        <v>162</v>
+      </c>
+      <c r="G149" s="2">
+        <v>7</v>
+      </c>
+      <c r="I149" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="16">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2">
+        <v>16</v>
+      </c>
+      <c r="C150" s="2">
+        <v>7</v>
+      </c>
+      <c r="D150" s="2">
+        <v>500</v>
+      </c>
+      <c r="F150" s="2">
+        <v>163</v>
+      </c>
+      <c r="G150" s="2">
+        <v>6</v>
+      </c>
+      <c r="I150" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K150" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" s="16">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2">
+        <v>16</v>
+      </c>
+      <c r="C151" s="2">
+        <v>8</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F151" s="2">
+        <v>164</v>
+      </c>
+      <c r="G151" s="2">
+        <v>5</v>
+      </c>
+      <c r="I151" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K151" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" s="16">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2">
+        <v>16</v>
+      </c>
+      <c r="C152" s="2">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2">
+        <v>8000</v>
+      </c>
+      <c r="F152" s="2">
+        <v>165</v>
+      </c>
+      <c r="G152" s="2">
+        <v>5</v>
+      </c>
+      <c r="I152" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K152" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="16">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2">
+        <v>16</v>
+      </c>
+      <c r="C153" s="2">
+        <v>10</v>
+      </c>
+      <c r="D153" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F153" s="2">
+        <v>166</v>
+      </c>
+      <c r="G153" s="2">
+        <v>1</v>
+      </c>
+      <c r="I153" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K153" s="2">
         <v>1</v>
       </c>
     </row>
@@ -26010,8 +26347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26351,10 +26688,10 @@
   <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D162" sqref="D162"/>
+      <selection pane="bottomRight" activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28652,6 +28989,12 @@
       <c r="E157" s="16"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2">
+        <v>157</v>
+      </c>
       <c r="D158" s="21" t="s">
         <v>271</v>
       </c>
@@ -28660,6 +29003,12 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2">
+        <v>158</v>
+      </c>
       <c r="D159" s="23" t="s">
         <v>272</v>
       </c>
@@ -28668,6 +29017,12 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2">
+        <v>159</v>
+      </c>
       <c r="D160" s="23" t="s">
         <v>272</v>
       </c>
@@ -28675,7 +29030,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2">
+        <v>160</v>
+      </c>
       <c r="D161" s="23" t="s">
         <v>272</v>
       </c>
@@ -28683,7 +29044,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2">
+        <v>161</v>
+      </c>
       <c r="D162" s="23" t="s">
         <v>272</v>
       </c>
@@ -28691,7 +29058,13 @@
         <v>350</v>
       </c>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2">
+        <v>162</v>
+      </c>
       <c r="D163" s="23" t="s">
         <v>272</v>
       </c>
@@ -28699,7 +29072,13 @@
         <v>700</v>
       </c>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2">
+        <v>163</v>
+      </c>
       <c r="D164" s="23" t="s">
         <v>272</v>
       </c>
@@ -28707,19 +29086,37 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2">
+        <v>164</v>
+      </c>
       <c r="C165" s="23" t="s">
         <v>273</v>
       </c>
       <c r="D165" s="23"/>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2">
+        <v>165</v>
+      </c>
       <c r="C166" s="23" t="s">
         <v>274</v>
       </c>
       <c r="D166" s="23"/>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2">
+        <v>166</v>
+      </c>
       <c r="C167" s="23" t="s">
         <v>275</v>
       </c>

--- a/config_debug/common_lottery_server.xlsx
+++ b/config_debug/common_lottery_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="284">
   <si>
     <t>id|</t>
   </si>
@@ -1519,14 +1519,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>summer_gift_day</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分抽大奖</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>charge_any</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1536,6 +1528,18 @@
   </si>
   <si>
     <t>dragon_blessing_shiwu_email</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分抽大奖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;summer_gift_day&gt;&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>summer_gift_day</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2840,10 +2844,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E19" s="10">
         <v>1597102200</v>
@@ -2882,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD86"/>
+  <dimension ref="A1:XFD87"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20588,10 +20592,24 @@
         <v>18</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E86" s="2">
         <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>18</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E87" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -20694,10 +20712,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21073,6 +21091,17 @@
       </c>
       <c r="C33" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -25980,7 +26009,7 @@
         <v>1</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I140" s="21" t="s">
         <v>133</v>
@@ -26067,7 +26096,7 @@
         <v>1</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I143" s="21" t="s">
         <v>133</v>
@@ -26347,8 +26376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/common_lottery_server.xlsx
+++ b/config_debug/common_lottery_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="286">
   <si>
     <t>id|</t>
   </si>
@@ -1542,6 +1542,14 @@
     <t>summer_gift_day</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>gift_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,107,108,110,85,86,87,88,89,109,10044,10045,111</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2888,8 +2896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20594,6 +20602,9 @@
       <c r="C86" s="23" t="s">
         <v>278</v>
       </c>
+      <c r="D86" s="2">
+        <v>4</v>
+      </c>
       <c r="E86" s="2">
         <v>32</v>
       </c>
@@ -20621,10 +20632,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20632,7 +20643,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="53.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20701,6 +20712,23 @@
         <v>2</v>
       </c>
       <c r="E4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="2">
         <v>2</v>
       </c>
     </row>

--- a/config_debug/common_lottery_server.xlsx
+++ b/config_debug/common_lottery_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -20634,8 +20634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21532,11 +21532,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F147" sqref="F147"/>
+      <selection pane="bottomRight" activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26150,7 +26150,7 @@
         <v>157</v>
       </c>
       <c r="G144" s="2">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="I144" s="21" t="s">
         <v>133</v>
@@ -26176,7 +26176,7 @@
         <v>158</v>
       </c>
       <c r="G145" s="2">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="I145" s="21" t="s">
         <v>133</v>
@@ -26202,7 +26202,7 @@
         <v>159</v>
       </c>
       <c r="G146" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I146" s="21" t="s">
         <v>133</v>
@@ -26228,7 +26228,7 @@
         <v>160</v>
       </c>
       <c r="G147" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I147" s="21" t="s">
         <v>133</v>
@@ -26254,7 +26254,7 @@
         <v>161</v>
       </c>
       <c r="G148" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I148" s="21" t="s">
         <v>133</v>
@@ -26280,7 +26280,7 @@
         <v>162</v>
       </c>
       <c r="G149" s="2">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="I149" s="21" t="s">
         <v>133</v>
@@ -26306,7 +26306,7 @@
         <v>163</v>
       </c>
       <c r="G150" s="2">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="I150" s="21" t="s">
         <v>133</v>
@@ -26332,7 +26332,7 @@
         <v>164</v>
       </c>
       <c r="G151" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I151" s="21" t="s">
         <v>133</v>
@@ -26358,7 +26358,7 @@
         <v>165</v>
       </c>
       <c r="G152" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I152" s="21" t="s">
         <v>133</v>
@@ -26748,7 +26748,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B158" sqref="B158"/>
+      <selection pane="bottomRight" activeCell="B167" sqref="B165:C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
